--- a/InputData/elec/ETS/Electricity Technology Shareweights.xlsx
+++ b/InputData/elec/ETS/Electricity Technology Shareweights.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\ETS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\California\CA-eps\InputData\elec\ETS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738849F8-3EF3-4804-8F67-3336470FA6D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C908A8B1-F2BC-451A-A817-67326C7F17A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{9B08635C-C98A-4192-B8F2-5981CE9EC6E6}"/>
+    <workbookView xWindow="645" yWindow="660" windowWidth="24975" windowHeight="16290" activeTab="1" xr2:uid="{9B08635C-C98A-4192-B8F2-5981CE9EC6E6}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="ETS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -579,7 +579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6422D012-50FD-4D0C-A3BE-19778A6AC198}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -689,8 +689,8 @@
   </sheetPr>
   <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,97 +1193,97 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -1291,97 +1291,97 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">

--- a/InputData/elec/ETS/Electricity Technology Shareweights.xlsx
+++ b/InputData/elec/ETS/Electricity Technology Shareweights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\California\CA-eps\InputData\elec\ETS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\California\Models\eps-california\InputData\elec\ETS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C908A8B1-F2BC-451A-A817-67326C7F17A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77477890-FFCA-46B3-8D29-E14C8769BDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="660" windowWidth="24975" windowHeight="16290" activeTab="1" xr2:uid="{9B08635C-C98A-4192-B8F2-5981CE9EC6E6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{9B08635C-C98A-4192-B8F2-5981CE9EC6E6}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -690,7 +690,7 @@
   <dimension ref="A1:AF17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B6" sqref="B6:AF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,97 +1193,97 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -1291,97 +1291,97 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">

--- a/InputData/elec/ETS/Electricity Technology Shareweights.xlsx
+++ b/InputData/elec/ETS/Electricity Technology Shareweights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\California\Models\eps-california\InputData\elec\ETS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77477890-FFCA-46B3-8D29-E14C8769BDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFC4F3C-0127-4097-A9A6-7DC1F58CFD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{9B08635C-C98A-4192-B8F2-5981CE9EC6E6}"/>
   </bookViews>
@@ -690,7 +690,7 @@
   <dimension ref="A1:AF17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:AF7"/>
+      <selection activeCell="B17" sqref="B17:AF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2271,97 +2271,97 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/ETS/Electricity Technology Shareweights.xlsx
+++ b/InputData/elec/ETS/Electricity Technology Shareweights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\California\Models\eps-california\InputData\elec\ETS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\ETS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFC4F3C-0127-4097-A9A6-7DC1F58CFD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65A17E0-9C00-424B-92FB-E8EF5BB7EF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{9B08635C-C98A-4192-B8F2-5981CE9EC6E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{9B08635C-C98A-4192-B8F2-5981CE9EC6E6}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>ETS Electricity Technology Shareweights</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>hard coal</t>
-  </si>
-  <si>
-    <t>natural gas nonpeaker</t>
   </si>
   <si>
     <t>nuclear</t>
@@ -189,12 +186,42 @@
   <si>
     <t>to deployment in the US.</t>
   </si>
+  <si>
+    <t>natural gas steam turbine</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle</t>
+  </si>
+  <si>
+    <t>The EPS assumes shareweights will be between 0 and 1 (inclusive).</t>
+  </si>
+  <si>
+    <t>hard coal w CCS</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle w CCS</t>
+  </si>
+  <si>
+    <t>biomass w CCS</t>
+  </si>
+  <si>
+    <t>lignite w CCS</t>
+  </si>
+  <si>
+    <t>small modular reactor</t>
+  </si>
+  <si>
+    <t>hydrogen combustion turbine</t>
+  </si>
+  <si>
+    <t>hydrogen combined cycle</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +262,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -257,11 +291,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -577,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6422D012-50FD-4D0C-A3BE-19778A6AC198}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,82 +632,87 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>25</v>
+      <c r="A10" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -687,10 +729,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:AF17"/>
+  <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:AF17"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:AF25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,7 +742,7 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -896,7 +938,7 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -994,7 +1036,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1092,203 +1134,203 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1386,7 +1428,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1484,7 +1526,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1582,7 +1624,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1680,7 +1722,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1778,7 +1820,7 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1876,7 +1918,7 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1974,7 +2016,7 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2072,105 +2114,105 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2268,7 +2310,7 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2362,6 +2404,790 @@
       </c>
       <c r="AF17">
         <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AF18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+      <c r="AF19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
+      <c r="AF20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AD21">
+        <v>1</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
+      </c>
+      <c r="AF21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
+      <c r="AF22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AF23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
+      <c r="AF24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
+      <c r="AF25">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
